--- a/XHSJ/Assets/GameRoot/Config/excel/attrDes.xlsx
+++ b/XHSJ/Assets/GameRoot/Config/excel/attrDes.xlsx
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P43" authorId="0">
+    <comment ref="P44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q43" authorId="0">
+    <comment ref="Q44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R43" authorId="0">
+    <comment ref="R44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S43" authorId="0">
+    <comment ref="S44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T43" authorId="0">
+    <comment ref="T44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U43" authorId="0">
+    <comment ref="U44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -338,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -657,23 +657,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每0.2秒造成20%火焰伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>破甲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>降低30%防御力。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>迟缓</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>降低速度20%。</t>
+    <t>流血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9秒内每层中毒每3秒造成5%毒素伤害，最大叠加20层。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5秒内每层燃烧每秒造成2%火焰伤害，最大叠加20层。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30秒内每层流血没2秒造成3%物理伤害，最大叠加20层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5秒内降低12%+层数*3%的速度，最大叠加5层。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5秒内受到的伤害提高12%+层数*3%，最大叠加5层。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以屏蔽魔力小于自己150%魔力的单位对自己的感知。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1072,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1413,48 +1437,72 @@
         <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="C26" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="16.5">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="16.5">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/XHSJ/Assets/GameRoot/Config/excel/attrDes.xlsx
+++ b/XHSJ/Assets/GameRoot/Config/excel/attrDes.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -338,20 +338,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Client</t>
-  </si>
-  <si>
-    <t>attr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Client</t>
@@ -483,10 +475,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>des</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Client</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -700,11 +688,80 @@
     <t>可以屏蔽魔力小于自己150%魔力的单位对自己的感知。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Combustion</t>
+  </si>
+  <si>
+    <t>Poisoning</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>bleeding</t>
+  </si>
+  <si>
+    <t>SunderArmor</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量发挥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量发挥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用武器时根据能量决定的挥发成都，影响法术加成。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用武器时根据重量决定的发挥程度，影响武技加成。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weightPlay</t>
+  </si>
+  <si>
+    <t>energyPlay</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最小值必须大于0 小于1   最大值必须大于1
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -779,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -795,6 +852,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -810,7 +871,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -884,7 +945,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -919,7 +979,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1095,389 +1154,648 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.75" customWidth="1"/>
+    <col min="4" max="4" width="91.7265625" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" customWidth="1"/>
+    <col min="7" max="7" width="64.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.5">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.5">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.5">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.5">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.5">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.5">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.5">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
+        <v>66</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
+        <v>64</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
+        <v>63</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.5">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.5">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.5">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
+        <v>61</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.5">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.5">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
       <c r="C24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.5">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.5">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.5">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.5">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="C25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.5">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="C27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="C28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" t="s">
-        <v>81</v>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.5">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30">
+        <v>-100</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.5">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31">
+        <v>-100</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="16.5">
@@ -1505,19 +1823,23 @@
       <c r="V44" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G13:G14"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1525,12 +1847,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
